--- a/pred_ohlcv/54_21/2019-11-21 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ZIL ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>1233475.791957344</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1233540.791957344</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1202637.564957344</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1155380.900857345</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1155445.900857345</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1674791.513257344</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1671578.569557344</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1769502.036857344</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5844985.359456638</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5820946.936556637</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5792003.834456638</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5788614.679256638</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>5644715.992356637</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>5644097.843756638</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6088802.156156638</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6132826.253856638</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6006228.212456637</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6191500.425656637</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6191500.425656637</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6168330.312456638</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6157201.961614454</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>6073505.976414454</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>5720684.045014454</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>5574675.291014454</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>5730423.400014454</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>5625983.545514454</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7454407.188821443</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>8560946.734082099</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>8596072.356082099</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>8585407.244182099</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>8438451.342882099</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>7457659.515482099</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>7337294.117882099</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>7332665.417982099</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7046638.867882099</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7142438.0018821</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7142288.0336821</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7197036.4336821</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>8396678.090882098</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>8818411.559679383</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>9292737.153079383</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>8959914.843679383</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>8926673.186879383</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1489383.989698312</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1546714.89146344</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>954582.6477634397</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>934563.5341634396</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>934634.5345634397</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1058069.460698311</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>916637.1462983111</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>750807.6635983111</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>750878.7633983111</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>751708.7633983111</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>643944.6105983111</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>657145.8248983111</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>615074.075998311</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>615074.075998311</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>721494.711098311</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>721494.711098311</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>721494.711098311</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>721294.210898311</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>721294.210898311</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>688642.6166983109</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>689342.9868983109</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>692609.4832983109</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>692451.7982983108</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>525290.2292983108</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>525150.2292983108</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-21 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ZIL ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>1233475.791957344</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1233540.791957344</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1202637.564957344</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1155380.900857345</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1155445.900857345</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1118841.962057345</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1674791.513257344</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1671578.569557344</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1854916.850657345</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1958570.653057344</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1769259.036857344</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1769502.036857344</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>6215276.245756638</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5844985.359456638</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>6014231.847056638</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5820946.936556637</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5792003.834456638</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5788614.679256638</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>5644715.992356637</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>5644097.843756638</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6088802.156156638</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>6132826.253856638</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>6006228.212456637</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6191500.425656637</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6191500.425656637</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6168330.312456638</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6157201.961614454</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>6129687.194414455</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>6073505.976414454</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>5720684.045014454</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>5574675.291014454</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7454407.188821443</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>8965033.861182099</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>8560946.734082099</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>8596072.356082099</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>8585407.244182099</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>8438451.342882099</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>7337294.117882099</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>7332665.417982099</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7046638.867882099</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7142438.0018821</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7142288.0336821</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7197036.4336821</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>8818411.559679383</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>8800437.781279383</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>9401632.638479384</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>8926673.186879383</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>9161993.435779383</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1487983.989698312</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1489383.989698312</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1496714.89146344</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1546714.89146344</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>954782.6477634397</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>954582.6477634397</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>934563.5341634396</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>934634.5345634397</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1058069.460698311</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1103624.460698311</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>901027.4774983112</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>897233.0324983113</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>892480.0324983113</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>971884.3411983112</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1036939.817998311</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1095087.482798311</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1095752.583298311</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1092503.807398311</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>915582.1268983111</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>916637.1462983111</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>750807.6635983111</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>750878.7633983111</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>751708.7633983111</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>643944.6105983111</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>644021.7217983111</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>643831.7217983111</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>657145.8248983111</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>615074.075998311</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>615074.075998311</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>721494.711098311</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>721494.711098311</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>721494.711098311</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>721294.210898311</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>721294.210898311</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>688642.6166983109</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>689342.9868983109</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>692609.4832983109</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>692451.7982983108</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>525290.2292983108</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>525150.2292983108</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
